--- a/data/trans_orig/IP3111_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3111_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D28A73C7-64F6-45D5-8453-07B3968C4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37A7F8A-A72F-4568-89BF-E855EC2B498B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80A47A99-402E-4516-AACA-AF61D16EC884}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCD541A3-E699-4BFE-BF6D-5D35D0DD4B38}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="236">
   <si>
     <t>Menores según la frecuencia de bebe refrescos u otras bebidas que contienen azúcar en 2023 (Tasa respuesta: 96,35%)</t>
   </si>
@@ -113,619 +113,634 @@
     <t>6,2%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>16,2%</t>
+    <t>16,28%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1140,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49656CB4-24BC-4B9C-A037-BD717E35C87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0361C6-DA42-4EF5-A111-AF3563514655}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>7429</v>
+        <v>7428</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>51</v>
@@ -1912,7 +1927,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
@@ -2037,10 +2052,10 @@
         <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>230</v>
@@ -2049,13 +2064,13 @@
         <v>160465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2085,13 @@
         <v>110297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>145</v>
@@ -2085,13 +2100,13 @@
         <v>99774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>295</v>
@@ -2100,13 +2115,13 @@
         <v>210071</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2136,13 @@
         <v>82069</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>121</v>
@@ -2136,13 +2151,13 @@
         <v>83464</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>231</v>
@@ -2151,13 +2166,13 @@
         <v>165533</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2187,13 @@
         <v>72907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -2187,13 +2202,13 @@
         <v>72121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -2202,13 +2217,13 @@
         <v>145029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2238,13 @@
         <v>72845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -2238,13 +2253,13 @@
         <v>58276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
@@ -2253,13 +2268,13 @@
         <v>131121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,7 +2330,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2327,13 +2342,13 @@
         <v>32272</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2342,13 +2357,13 @@
         <v>33183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -2357,13 +2372,13 @@
         <v>65455</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2393,13 @@
         <v>54455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -2393,13 +2408,13 @@
         <v>36882</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>129</v>
@@ -2408,13 +2423,13 @@
         <v>91337</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2444,13 @@
         <v>37583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -2444,13 +2459,13 @@
         <v>27071</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M27" s="7">
         <v>93</v>
@@ -2459,13 +2474,13 @@
         <v>64654</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,10 +2495,10 @@
         <v>29321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>161</v>
@@ -2513,10 +2528,10 @@
         <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2546,13 @@
         <v>13877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -2546,13 +2561,13 @@
         <v>15205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>41</v>
@@ -2561,13 +2576,13 @@
         <v>29083</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2597,13 @@
         <v>4987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -2597,13 +2612,13 @@
         <v>12902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -2612,13 +2627,13 @@
         <v>17889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2701,13 @@
         <v>82194</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>140</v>
@@ -2701,13 +2716,13 @@
         <v>93343</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>262</v>
@@ -2716,13 +2731,13 @@
         <v>175538</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2752,13 @@
         <v>154261</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H33" s="7">
         <v>166</v>
@@ -2752,13 +2767,13 @@
         <v>111587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M33" s="7">
         <v>381</v>
@@ -2767,13 +2782,13 @@
         <v>265848</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2803,13 @@
         <v>161648</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>206</v>
@@ -2803,13 +2818,13 @@
         <v>140286</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -2818,13 +2833,13 @@
         <v>301934</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2854,13 @@
         <v>118819</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>169</v>
@@ -2854,13 +2869,13 @@
         <v>117106</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
         <v>327</v>
@@ -2869,13 +2884,13 @@
         <v>235924</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2905,13 @@
         <v>92787</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -2905,13 +2920,13 @@
         <v>94129</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>237</v>
@@ -2920,13 +2935,13 @@
         <v>186917</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2956,13 @@
         <v>96104</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>112</v>
@@ -2956,13 +2971,13 @@
         <v>81247</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>217</v>
@@ -2971,13 +2986,13 @@
         <v>177351</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3048,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
